--- a/docs/Mapping_casi_uso/matrimoni/Rico_Matr_999.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Rico_Matr_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="87">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -325,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -854,7 +860,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -946,7 +952,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1061,7 +1067,7 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
@@ -1107,7 +1113,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1124,19 +1130,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1147,19 +1153,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1170,19 +1176,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1193,19 +1199,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1216,19 +1222,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1239,19 +1245,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1262,19 +1268,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1285,19 +1291,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1308,19 +1314,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1331,19 +1337,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1354,19 +1360,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1377,19 +1383,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1400,19 +1406,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1423,19 +1429,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1446,19 +1452,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1469,19 +1475,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1492,19 +1498,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1515,19 +1521,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1538,19 +1544,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1561,19 +1567,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1590,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1633,21 +1639,67 @@
         <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="E59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>16</v>
       </c>
     </row>
